--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/69/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/69/FD_Curve.xlsx
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.66758</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.58</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.60803</v>
+        <v>7.86267</v>
       </c>
       <c r="C9" t="n">
-        <v>7608.03</v>
+        <v>7862.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247945</v>
+        <v>0.247923</v>
       </c>
       <c r="B10" t="n">
-        <v>8.28073</v>
+        <v>8.920579999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>8280.73</v>
+        <v>8920.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.27887</v>
+        <v>0.278848</v>
       </c>
       <c r="B11" t="n">
-        <v>9.05955</v>
+        <v>9.96551</v>
       </c>
       <c r="C11" t="n">
-        <v>9059.549999999999</v>
+        <v>9965.51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309795</v>
+        <v>0.309773</v>
       </c>
       <c r="B12" t="n">
-        <v>9.58201</v>
+        <v>10.7359</v>
       </c>
       <c r="C12" t="n">
-        <v>9582.01</v>
+        <v>10735.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.34072</v>
+        <v>0.340699</v>
       </c>
       <c r="B13" t="n">
-        <v>10.0023</v>
+        <v>11.3658</v>
       </c>
       <c r="C13" t="n">
-        <v>10002.3</v>
+        <v>11365.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371645</v>
+        <v>0.371624</v>
       </c>
       <c r="B14" t="n">
-        <v>10.1191</v>
+        <v>11.9845</v>
       </c>
       <c r="C14" t="n">
-        <v>10119.1</v>
+        <v>11984.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.40257</v>
+        <v>0.402549</v>
       </c>
       <c r="B15" t="n">
-        <v>10.1342</v>
+        <v>12.3907</v>
       </c>
       <c r="C15" t="n">
-        <v>10134.2</v>
+        <v>12390.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433495</v>
+        <v>0.433474</v>
       </c>
       <c r="B16" t="n">
-        <v>10.1379</v>
+        <v>12.7823</v>
       </c>
       <c r="C16" t="n">
-        <v>10137.9</v>
+        <v>12782.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.46442</v>
+        <v>0.464399</v>
       </c>
       <c r="B17" t="n">
-        <v>10.1367</v>
+        <v>13.0382</v>
       </c>
       <c r="C17" t="n">
-        <v>10136.7</v>
+        <v>13038.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495345</v>
+        <v>0.495324</v>
       </c>
       <c r="B18" t="n">
-        <v>10.1331</v>
+        <v>13.1658</v>
       </c>
       <c r="C18" t="n">
-        <v>10133.1</v>
+        <v>13165.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.52627</v>
+        <v>0.526249</v>
       </c>
       <c r="B19" t="n">
-        <v>10.1268</v>
+        <v>13.2012</v>
       </c>
       <c r="C19" t="n">
-        <v>10126.8</v>
+        <v>13201.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557195</v>
+        <v>0.5571739999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>10.1192</v>
+        <v>13.1747</v>
       </c>
       <c r="C20" t="n">
-        <v>10119.2</v>
+        <v>13174.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.58812</v>
+        <v>0.588099</v>
       </c>
       <c r="B21" t="n">
-        <v>10.1095</v>
+        <v>13.1204</v>
       </c>
       <c r="C21" t="n">
-        <v>10109.5</v>
+        <v>13120.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619162</v>
+        <v>0.6191410000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>10.0984</v>
+        <v>13.057</v>
       </c>
       <c r="C22" t="n">
-        <v>10098.4</v>
+        <v>13057</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650335</v>
+        <v>0.650313</v>
       </c>
       <c r="B23" t="n">
-        <v>10.0858</v>
+        <v>12.9895</v>
       </c>
       <c r="C23" t="n">
-        <v>10085.8</v>
+        <v>12989.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681507</v>
+        <v>0.681486</v>
       </c>
       <c r="B24" t="n">
-        <v>10.0719</v>
+        <v>12.9028</v>
       </c>
       <c r="C24" t="n">
-        <v>10071.9</v>
+        <v>12902.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712684</v>
+        <v>0.712663</v>
       </c>
       <c r="B25" t="n">
-        <v>10.0566</v>
+        <v>12.8203</v>
       </c>
       <c r="C25" t="n">
-        <v>10056.6</v>
+        <v>12820.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743857</v>
+        <v>0.7438360000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>10.0399</v>
+        <v>12.7204</v>
       </c>
       <c r="C26" t="n">
-        <v>10039.9</v>
+        <v>12720.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775034</v>
+        <v>0.775013</v>
       </c>
       <c r="B27" t="n">
-        <v>10.022</v>
+        <v>12.6221</v>
       </c>
       <c r="C27" t="n">
-        <v>10022</v>
+        <v>12622.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806207</v>
+        <v>0.806185</v>
       </c>
       <c r="B28" t="n">
-        <v>10.0029</v>
+        <v>12.512</v>
       </c>
       <c r="C28" t="n">
-        <v>10002.9</v>
+        <v>12512</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837379</v>
+        <v>0.837358</v>
       </c>
       <c r="B29" t="n">
-        <v>9.982239999999999</v>
+        <v>12.3955</v>
       </c>
       <c r="C29" t="n">
-        <v>9982.24</v>
+        <v>12395.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868556</v>
+        <v>0.8685349999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>9.95987</v>
+        <v>12.2772</v>
       </c>
       <c r="C30" t="n">
-        <v>9959.870000000001</v>
+        <v>12277.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899729</v>
+        <v>0.899707</v>
       </c>
       <c r="B31" t="n">
-        <v>9.93623</v>
+        <v>12.1443</v>
       </c>
       <c r="C31" t="n">
-        <v>9936.23</v>
+        <v>12144.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930901</v>
+        <v>0.93088</v>
       </c>
       <c r="B32" t="n">
-        <v>9.910620000000002</v>
+        <v>12.0146</v>
       </c>
       <c r="C32" t="n">
-        <v>9910.620000000001</v>
+        <v>12014.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962078</v>
+        <v>0.9620570000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>9.88374</v>
+        <v>11.8684</v>
       </c>
       <c r="C33" t="n">
-        <v>9883.74</v>
+        <v>11868.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993251</v>
+        <v>0.993229</v>
       </c>
       <c r="B34" t="n">
-        <v>9.85558</v>
+        <v>11.7244</v>
       </c>
       <c r="C34" t="n">
-        <v>9855.58</v>
+        <v>11724.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02456</v>
+        <v>1.02426</v>
       </c>
       <c r="B35" t="n">
-        <v>9.82602</v>
+        <v>11.5684</v>
       </c>
       <c r="C35" t="n">
-        <v>9826.02</v>
+        <v>11568.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05594</v>
+        <v>1.05523</v>
       </c>
       <c r="B36" t="n">
-        <v>9.79527</v>
+        <v>11.4072</v>
       </c>
       <c r="C36" t="n">
-        <v>9795.27</v>
+        <v>11407.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08732</v>
+        <v>1.0862</v>
       </c>
       <c r="B37" t="n">
-        <v>9.763040000000002</v>
+        <v>11.2426</v>
       </c>
       <c r="C37" t="n">
-        <v>9763.040000000001</v>
+        <v>11242.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11871</v>
+        <v>1.11717</v>
       </c>
       <c r="B38" t="n">
-        <v>9.728590000000001</v>
+        <v>11.0648</v>
       </c>
       <c r="C38" t="n">
-        <v>9728.59</v>
+        <v>11064.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15009</v>
+        <v>1.1482</v>
       </c>
       <c r="B39" t="n">
-        <v>9.69224</v>
+        <v>9.32516</v>
       </c>
       <c r="C39" t="n">
-        <v>9692.24</v>
+        <v>9325.16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18147</v>
+        <v>1.17893</v>
       </c>
       <c r="B40" t="n">
-        <v>9.65466</v>
+        <v>11.5895</v>
       </c>
       <c r="C40" t="n">
-        <v>9654.66</v>
+        <v>11589.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21285</v>
+        <v>1.2101</v>
       </c>
       <c r="B41" t="n">
-        <v>9.615399999999999</v>
+        <v>7.88869</v>
       </c>
       <c r="C41" t="n">
-        <v>9615.4</v>
+        <v>7888.69</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24423</v>
+        <v>1.24123</v>
       </c>
       <c r="B42" t="n">
-        <v>9.57413</v>
+        <v>10.2321</v>
       </c>
       <c r="C42" t="n">
-        <v>9574.129999999999</v>
+        <v>10232.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27561</v>
+        <v>1.27252</v>
       </c>
       <c r="B43" t="n">
-        <v>9.53069</v>
+        <v>10.0611</v>
       </c>
       <c r="C43" t="n">
-        <v>9530.690000000001</v>
+        <v>10061.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30699</v>
+        <v>1.30342</v>
       </c>
       <c r="B44" t="n">
-        <v>9.485100000000001</v>
+        <v>10.6011</v>
       </c>
       <c r="C44" t="n">
-        <v>9485.1</v>
+        <v>10601.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33837</v>
+        <v>1.33444</v>
       </c>
       <c r="B45" t="n">
-        <v>9.43756</v>
+        <v>10.0322</v>
       </c>
       <c r="C45" t="n">
-        <v>9437.559999999999</v>
+        <v>10032.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.3693</v>
+        <v>1.36549</v>
       </c>
       <c r="B46" t="n">
-        <v>9.388549999999999</v>
+        <v>9.743170000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>9388.549999999999</v>
+        <v>9743.17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.40046</v>
+        <v>1.3963</v>
       </c>
       <c r="B47" t="n">
-        <v>9.33671</v>
+        <v>9.510250000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>9336.709999999999</v>
+        <v>9510.25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43129</v>
+        <v>1.42753</v>
       </c>
       <c r="B48" t="n">
-        <v>9.282780000000001</v>
+        <v>9.37602</v>
       </c>
       <c r="C48" t="n">
-        <v>9282.780000000001</v>
+        <v>9376.02</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46246</v>
+        <v>1.45855</v>
       </c>
       <c r="B49" t="n">
-        <v>9.22536</v>
+        <v>9.153510000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>9225.360000000001</v>
+        <v>9153.51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49329</v>
+        <v>1.48958</v>
       </c>
       <c r="B50" t="n">
-        <v>9.166170000000001</v>
+        <v>8.84065</v>
       </c>
       <c r="C50" t="n">
-        <v>9166.17</v>
+        <v>8840.65</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52446</v>
+        <v>1.52054</v>
       </c>
       <c r="B51" t="n">
-        <v>9.10351</v>
+        <v>8.691079999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>9103.51</v>
+        <v>8691.08</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55539</v>
+        <v>1.55151</v>
       </c>
       <c r="B52" t="n">
-        <v>9.03858</v>
+        <v>8.489100000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>9038.58</v>
+        <v>8489.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58638</v>
+        <v>1.58257</v>
       </c>
       <c r="B53" t="n">
-        <v>8.9704</v>
+        <v>8.32296</v>
       </c>
       <c r="C53" t="n">
-        <v>8970.4</v>
+        <v>8322.959999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61746</v>
+        <v>1.61354</v>
       </c>
       <c r="B54" t="n">
-        <v>8.8988</v>
+        <v>8.0365</v>
       </c>
       <c r="C54" t="n">
-        <v>8898.799999999999</v>
+        <v>8036.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64825</v>
+        <v>1.6446</v>
       </c>
       <c r="B55" t="n">
-        <v>8.824629999999999</v>
+        <v>7.864850000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>8824.629999999999</v>
+        <v>7864.85</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67947</v>
+        <v>1.6755</v>
       </c>
       <c r="B56" t="n">
-        <v>8.745420000000001</v>
+        <v>7.695340000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>8745.42</v>
+        <v>7695.34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.71038</v>
+        <v>1.70668</v>
       </c>
       <c r="B57" t="n">
-        <v>8.66342</v>
+        <v>7.62444</v>
       </c>
       <c r="C57" t="n">
-        <v>8663.42</v>
+        <v>7624.44</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.74143</v>
+        <v>1.73759</v>
       </c>
       <c r="B58" t="n">
-        <v>8.577620000000001</v>
+        <v>7.413720000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>8577.620000000001</v>
+        <v>7413.72</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77245</v>
+        <v>1.76876</v>
       </c>
       <c r="B59" t="n">
-        <v>8.488430000000001</v>
+        <v>7.2132</v>
       </c>
       <c r="C59" t="n">
-        <v>8488.43</v>
+        <v>7213.2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80331</v>
+        <v>1.79968</v>
       </c>
       <c r="B60" t="n">
-        <v>8.396370000000001</v>
+        <v>7.09926</v>
       </c>
       <c r="C60" t="n">
-        <v>8396.370000000001</v>
+        <v>7099.26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83453</v>
+        <v>1.83032</v>
       </c>
       <c r="B61" t="n">
-        <v>8.29989</v>
+        <v>6.997850000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>8299.889999999999</v>
+        <v>6997.85</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86522</v>
+        <v>1.8617</v>
       </c>
       <c r="B62" t="n">
-        <v>8.20126</v>
+        <v>6.89217</v>
       </c>
       <c r="C62" t="n">
-        <v>8201.26</v>
+        <v>6892.17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.8965</v>
+        <v>1.89252</v>
       </c>
       <c r="B63" t="n">
-        <v>8.0975</v>
+        <v>6.73488</v>
       </c>
       <c r="C63" t="n">
-        <v>8097.5</v>
+        <v>6734.88</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.9272</v>
+        <v>1.92331</v>
       </c>
       <c r="B64" t="n">
-        <v>7.992770000000001</v>
+        <v>6.61545</v>
       </c>
       <c r="C64" t="n">
-        <v>7992.77</v>
+        <v>6615.45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95857</v>
+        <v>1.95476</v>
       </c>
       <c r="B65" t="n">
-        <v>7.88287</v>
+        <v>6.53195</v>
       </c>
       <c r="C65" t="n">
-        <v>7882.87</v>
+        <v>6531.95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98922</v>
+        <v>1.98551</v>
       </c>
       <c r="B66" t="n">
-        <v>7.77271</v>
+        <v>6.44236</v>
       </c>
       <c r="C66" t="n">
-        <v>7772.71</v>
+        <v>6442.36</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02043</v>
+        <v>2.01619</v>
       </c>
       <c r="B67" t="n">
-        <v>7.65783</v>
+        <v>6.298439999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>7657.83</v>
+        <v>6298.44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05142</v>
+        <v>2.04727</v>
       </c>
       <c r="B68" t="n">
-        <v>7.54302</v>
+        <v>6.21896</v>
       </c>
       <c r="C68" t="n">
-        <v>7543.02</v>
+        <v>6218.96</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08235</v>
+        <v>2.07834</v>
       </c>
       <c r="B69" t="n">
-        <v>7.42476</v>
+        <v>6.13244</v>
       </c>
       <c r="C69" t="n">
-        <v>7424.76</v>
+        <v>6132.44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11364</v>
+        <v>2.10921</v>
       </c>
       <c r="B70" t="n">
-        <v>7.30522</v>
+        <v>6.03048</v>
       </c>
       <c r="C70" t="n">
-        <v>7305.22</v>
+        <v>6030.48</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14408</v>
+        <v>2.13995</v>
       </c>
       <c r="B71" t="n">
-        <v>7.18526</v>
+        <v>5.94145</v>
       </c>
       <c r="C71" t="n">
-        <v>7185.26</v>
+        <v>5941.45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17571</v>
+        <v>2.17142</v>
       </c>
       <c r="B72" t="n">
-        <v>7.061920000000001</v>
+        <v>5.88129</v>
       </c>
       <c r="C72" t="n">
-        <v>7061.92</v>
+        <v>5881.29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20614</v>
+        <v>2.20288</v>
       </c>
       <c r="B73" t="n">
-        <v>6.940720000000001</v>
+        <v>5.79911</v>
       </c>
       <c r="C73" t="n">
-        <v>6940.72</v>
+        <v>5799.11</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23739</v>
+        <v>2.23264</v>
       </c>
       <c r="B74" t="n">
-        <v>6.81737</v>
+        <v>5.72524</v>
       </c>
       <c r="C74" t="n">
-        <v>6817.37</v>
+        <v>5725.24</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26855</v>
+        <v>2.26369</v>
       </c>
       <c r="B75" t="n">
-        <v>6.69376</v>
+        <v>5.65858</v>
       </c>
       <c r="C75" t="n">
-        <v>6693.76</v>
+        <v>5658.58</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29895</v>
+        <v>2.29504</v>
       </c>
       <c r="B76" t="n">
-        <v>6.57325</v>
+        <v>5.596</v>
       </c>
       <c r="C76" t="n">
-        <v>6573.25</v>
+        <v>5596</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.33073</v>
+        <v>2.32577</v>
       </c>
       <c r="B77" t="n">
-        <v>6.45015</v>
+        <v>5.5774</v>
       </c>
       <c r="C77" t="n">
-        <v>6450.15</v>
+        <v>5577.4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.36145</v>
+        <v>2.35649</v>
       </c>
       <c r="B78" t="n">
-        <v>6.32801</v>
+        <v>5.59858</v>
       </c>
       <c r="C78" t="n">
-        <v>6328.01</v>
+        <v>5598.58</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39217</v>
+        <v>2.38754</v>
       </c>
       <c r="B79" t="n">
-        <v>6.20948</v>
+        <v>5.58952</v>
       </c>
       <c r="C79" t="n">
-        <v>6209.48</v>
+        <v>5589.52</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42338</v>
+        <v>2.41883</v>
       </c>
       <c r="B80" t="n">
-        <v>6.09083</v>
+        <v>5.57529</v>
       </c>
       <c r="C80" t="n">
-        <v>6090.83</v>
+        <v>5575.29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45447</v>
+        <v>2.44738</v>
       </c>
       <c r="B81" t="n">
-        <v>5.97337</v>
+        <v>5.57569</v>
       </c>
       <c r="C81" t="n">
-        <v>5973.37</v>
+        <v>5575.69</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48556</v>
+        <v>2.47584</v>
       </c>
       <c r="B82" t="n">
-        <v>5.86059</v>
+        <v>5.5642</v>
       </c>
       <c r="C82" t="n">
-        <v>5860.59</v>
+        <v>5564.2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51575</v>
+        <v>2.51062</v>
       </c>
       <c r="B83" t="n">
-        <v>5.75297</v>
+        <v>5.53559</v>
       </c>
       <c r="C83" t="n">
-        <v>5752.97</v>
+        <v>5535.59</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54511</v>
+        <v>2.54582</v>
       </c>
       <c r="B84" t="n">
-        <v>5.65068</v>
+        <v>5.50445</v>
       </c>
       <c r="C84" t="n">
-        <v>5650.68</v>
+        <v>5504.45</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57498</v>
+        <v>2.57909</v>
       </c>
       <c r="B85" t="n">
-        <v>5.55154</v>
+        <v>5.4941</v>
       </c>
       <c r="C85" t="n">
-        <v>5551.54</v>
+        <v>5494.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60484</v>
+        <v>2.61109</v>
       </c>
       <c r="B86" t="n">
-        <v>5.45828</v>
+        <v>5.45355</v>
       </c>
       <c r="C86" t="n">
-        <v>5458.28</v>
+        <v>5453.55</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63471</v>
+        <v>2.64309</v>
       </c>
       <c r="B87" t="n">
-        <v>5.36686</v>
+        <v>5.43768</v>
       </c>
       <c r="C87" t="n">
-        <v>5366.86</v>
+        <v>5437.68</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66458</v>
+        <v>2.67509</v>
       </c>
       <c r="B88" t="n">
-        <v>5.278060000000001</v>
+        <v>5.41578</v>
       </c>
       <c r="C88" t="n">
-        <v>5278.06</v>
+        <v>5415.78</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69444</v>
+        <v>2.70709</v>
       </c>
       <c r="B89" t="n">
-        <v>5.19151</v>
+        <v>5.385479999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>5191.51</v>
+        <v>5385.48</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72431</v>
+        <v>2.73909</v>
       </c>
       <c r="B90" t="n">
-        <v>5.10747</v>
+        <v>5.35609</v>
       </c>
       <c r="C90" t="n">
-        <v>5107.47</v>
+        <v>5356.09</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75418</v>
+        <v>2.77109</v>
       </c>
       <c r="B91" t="n">
-        <v>5.02657</v>
+        <v>5.32267</v>
       </c>
       <c r="C91" t="n">
-        <v>5026.57</v>
+        <v>5322.67</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78736</v>
+        <v>2.80309</v>
       </c>
       <c r="B92" t="n">
-        <v>4.940180000000001</v>
+        <v>5.285270000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>4940.18</v>
+        <v>5285.27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.81833</v>
+        <v>2.83286</v>
       </c>
       <c r="B93" t="n">
-        <v>4.870979999999999</v>
+        <v>5.269979999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>4870.98</v>
+        <v>5269.98</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.84649</v>
+        <v>2.86168</v>
       </c>
       <c r="B94" t="n">
-        <v>4.82154</v>
+        <v>5.23052</v>
       </c>
       <c r="C94" t="n">
-        <v>4821.54</v>
+        <v>5230.52</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.87673</v>
+        <v>2.89047</v>
       </c>
       <c r="B95" t="n">
-        <v>4.77289</v>
+        <v>5.19799</v>
       </c>
       <c r="C95" t="n">
-        <v>4772.89</v>
+        <v>5197.99</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91193</v>
+        <v>2.91928</v>
       </c>
       <c r="B96" t="n">
-        <v>4.73402</v>
+        <v>5.19494</v>
       </c>
       <c r="C96" t="n">
-        <v>4734.02</v>
+        <v>5194.94</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.946</v>
+        <v>2.94807</v>
       </c>
       <c r="B97" t="n">
-        <v>4.70938</v>
+        <v>5.15347</v>
       </c>
       <c r="C97" t="n">
-        <v>4709.38</v>
+        <v>5153.47</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.978</v>
+        <v>2.97688</v>
       </c>
       <c r="B98" t="n">
-        <v>4.68799</v>
+        <v>5.11864</v>
       </c>
       <c r="C98" t="n">
-        <v>4687.99</v>
+        <v>5118.64</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01</v>
+        <v>3.00567</v>
       </c>
       <c r="B99" t="n">
-        <v>4.65542</v>
+        <v>5.10337</v>
       </c>
       <c r="C99" t="n">
-        <v>4655.42</v>
+        <v>5103.37</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.042</v>
+        <v>3.03447</v>
       </c>
       <c r="B100" t="n">
-        <v>4.635479999999999</v>
+        <v>5.080430000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>4635.48</v>
+        <v>5080.43</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.074</v>
+        <v>3.06328</v>
       </c>
       <c r="B101" t="n">
-        <v>4.60178</v>
+        <v>5.05118</v>
       </c>
       <c r="C101" t="n">
-        <v>4601.78</v>
+        <v>5051.18</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.106</v>
+        <v>3.09207</v>
       </c>
       <c r="B102" t="n">
-        <v>4.57331</v>
+        <v>5.02667</v>
       </c>
       <c r="C102" t="n">
-        <v>4573.31</v>
+        <v>5026.67</v>
       </c>
     </row>
   </sheetData>
